--- a/Data_Oros.xlsx
+++ b/Data_Oros.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Github\Genetic_Algorithm_Water_Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85D0C0-DB2B-47F5-894F-65661BA2AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCEB8A-F50F-44FB-A4F3-F78541B32C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_data" sheetId="1" r:id="rId1"/>
     <sheet name="Evap" sheetId="2" r:id="rId2"/>
+    <sheet name="Demanda" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -84,15 +85,43 @@
   <si>
     <t>Data</t>
   </si>
+  <si>
+    <t>Abastecimento_Urbano</t>
+  </si>
+  <si>
+    <t>Abastecimento_Rural</t>
+  </si>
+  <si>
+    <t>Desedentacao_Animal</t>
+  </si>
+  <si>
+    <t>Irrigacao</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +148,13 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,9 +214,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
+    <sheetView topLeftCell="A958" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -12721,7 +12760,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12847,4 +12886,117 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39E6B8-23E7-424B-BFAC-C314D3670083}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <f>0.134</f>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C2">
+        <f>B2*65</f>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D2">
+        <f>B2*65*12</f>
+        <v>104.52000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">B3*65</f>
+        <v>4.4525000000000006</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">B3*65*12</f>
+        <v>53.430000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>96.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>43.484999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>521.81999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>